--- a/artfynd/A 30705-2023.xlsx
+++ b/artfynd/A 30705-2023.xlsx
@@ -1454,7 +1454,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110989602</v>
+        <v>110988704</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>583670.0576990132</v>
+        <v>583670.8515506975</v>
       </c>
       <c r="R8" t="n">
-        <v>6316485.979814067</v>
+        <v>6316609.164880507</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110989521</v>
+        <v>110990834</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>583671.3110365857</v>
+        <v>583744.4762311341</v>
       </c>
       <c r="R9" t="n">
-        <v>6316505.080166879</v>
+        <v>6316613.919327732</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110988704</v>
+        <v>110989684</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>583670.8515506975</v>
+        <v>583642.7194559593</v>
       </c>
       <c r="R10" t="n">
-        <v>6316609.164880507</v>
+        <v>6316596.063251798</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110990834</v>
+        <v>110988619</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>583744.4762311341</v>
+        <v>583682.7381877999</v>
       </c>
       <c r="R11" t="n">
-        <v>6316613.919327732</v>
+        <v>6316534.195461861</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110989684</v>
+        <v>110988780</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -2005,17 +2005,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>583642.7194559593</v>
+        <v>583657.0434995076</v>
       </c>
       <c r="R12" t="n">
-        <v>6316596.063251798</v>
+        <v>6316589.811993619</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110988619</v>
+        <v>110989773</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2134,17 +2134,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -2155,10 +2155,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>583682.7381877999</v>
+        <v>583684.7473225032</v>
       </c>
       <c r="R13" t="n">
-        <v>6316534.195461861</v>
+        <v>6316624.159612642</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110988780</v>
+        <v>110989810</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2263,17 +2263,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>583657.0434995076</v>
+        <v>583738.8088917618</v>
       </c>
       <c r="R14" t="n">
-        <v>6316589.811993619</v>
+        <v>6316624.159761362</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110989773</v>
+        <v>111022545</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2369,43 +2369,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2413,10 +2404,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>583684.7473225032</v>
+        <v>583717.9819597973</v>
       </c>
       <c r="R15" t="n">
-        <v>6316624.159612642</v>
+        <v>6316600.850230335</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2486,10 +2477,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110989810</v>
+        <v>111022517</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>90018</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2498,43 +2489,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2542,10 +2528,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>583738.8088917618</v>
+        <v>583717.9819597973</v>
       </c>
       <c r="R16" t="n">
-        <v>6316624.159761362</v>
+        <v>6316600.850230335</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2615,10 +2601,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111022545</v>
+        <v>110989602</v>
       </c>
       <c r="B17" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2627,34 +2613,43 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2662,10 +2657,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>583717.9819597973</v>
+        <v>583670.0576990132</v>
       </c>
       <c r="R17" t="n">
-        <v>6316600.850230335</v>
+        <v>6316485.979814067</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2735,10 +2730,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111022517</v>
+        <v>110989521</v>
       </c>
       <c r="B18" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2747,38 +2742,43 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>583717.9819597973</v>
+        <v>583671.3110365857</v>
       </c>
       <c r="R18" t="n">
-        <v>6316600.850230335</v>
+        <v>6316505.080166879</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 30705-2023.xlsx
+++ b/artfynd/A 30705-2023.xlsx
@@ -1454,7 +1454,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110988704</v>
+        <v>110989602</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>583670.8515506975</v>
+        <v>583670.0576990132</v>
       </c>
       <c r="R8" t="n">
-        <v>6316609.164880507</v>
+        <v>6316485.979814067</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110990834</v>
+        <v>110989521</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>583744.4762311341</v>
+        <v>583671.3110365857</v>
       </c>
       <c r="R9" t="n">
-        <v>6316613.919327732</v>
+        <v>6316505.080166879</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110989684</v>
+        <v>110988704</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>583642.7194559593</v>
+        <v>583670.8515506975</v>
       </c>
       <c r="R10" t="n">
-        <v>6316596.063251798</v>
+        <v>6316609.164880507</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110988619</v>
+        <v>110990834</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>583682.7381877999</v>
+        <v>583744.4762311341</v>
       </c>
       <c r="R11" t="n">
-        <v>6316534.195461861</v>
+        <v>6316613.919327732</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110988780</v>
+        <v>110989684</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -2005,17 +2005,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>583657.0434995076</v>
+        <v>583642.7194559593</v>
       </c>
       <c r="R12" t="n">
-        <v>6316589.811993619</v>
+        <v>6316596.063251798</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110989773</v>
+        <v>110988619</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2134,17 +2134,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -2155,10 +2155,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>583684.7473225032</v>
+        <v>583682.7381877999</v>
       </c>
       <c r="R13" t="n">
-        <v>6316624.159612642</v>
+        <v>6316534.195461861</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110989810</v>
+        <v>110988780</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2263,17 +2263,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>583738.8088917618</v>
+        <v>583657.0434995076</v>
       </c>
       <c r="R14" t="n">
-        <v>6316624.159761362</v>
+        <v>6316589.811993619</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111022545</v>
+        <v>110989773</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2369,34 +2369,43 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2404,10 +2413,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>583717.9819597973</v>
+        <v>583684.7473225032</v>
       </c>
       <c r="R15" t="n">
-        <v>6316600.850230335</v>
+        <v>6316624.159612642</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2477,10 +2486,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111022517</v>
+        <v>110989810</v>
       </c>
       <c r="B16" t="n">
-        <v>90018</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2489,38 +2498,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2528,10 +2542,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>583717.9819597973</v>
+        <v>583738.8088917618</v>
       </c>
       <c r="R16" t="n">
-        <v>6316600.850230335</v>
+        <v>6316624.159761362</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2601,10 +2615,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110989602</v>
+        <v>111022545</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2613,43 +2627,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2657,10 +2662,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>583670.0576990132</v>
+        <v>583717.9819597973</v>
       </c>
       <c r="R17" t="n">
-        <v>6316485.979814067</v>
+        <v>6316600.850230335</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2730,10 +2735,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110989521</v>
+        <v>111022517</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>90018</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2742,43 +2747,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>583671.3110365857</v>
+        <v>583717.9819597973</v>
       </c>
       <c r="R18" t="n">
-        <v>6316505.080166879</v>
+        <v>6316600.850230335</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
